--- a/CellCTRL_MPC01/MPC-Status/Berechnung Kreis Positionen.xlsx
+++ b/CellCTRL_MPC01/MPC-Status/Berechnung Kreis Positionen.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SYS\04_Projects\Manipulator\04_Electric\CellCTRL_MPC01\MPC-Status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18010054-7DBB-47B7-B82D-D2B1C9367839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="27840" yWindow="0" windowWidth="10650" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>X-Wert</t>
   </si>
@@ -35,14 +52,17 @@
   <si>
     <t>Radius</t>
   </si>
+  <si>
+    <t>Rotation Grad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -58,21 +78,21 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -87,291 +107,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -562,19 +299,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" ht="14.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -584,17 +323,20 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -608,219 +350,264 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>150</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>75</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>150</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>105</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SIN(E6)*$K$5+$I$5</f>
-        <v>120.35905127721415</v>
+        <f>COS(E6)*$L$5+$J$5</f>
+        <v>175.9807687475051</v>
       </c>
       <c r="D6">
-        <f>SIN(E6)*$K$5+$J$5</f>
-        <v>75.359051277214149</v>
+        <f t="shared" ref="D6:D16" si="0">SIN(E6)*$L$5+$K$5</f>
+        <v>119.99998850961767</v>
       </c>
       <c r="E6">
+        <f>F6*3.14159/180</f>
+        <v>0.52359833333333328</v>
+      </c>
+      <c r="F6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <f>COS(E7)*$K$5+$I$5</f>
-        <v>121.4276105875453</v>
+        <f t="shared" ref="C7:C16" si="1">COS(E7)*$L$5+$J$5</f>
+        <v>165.00002298075586</v>
       </c>
       <c r="D7">
-        <f>SIN(E7)*$K$5+$J$5</f>
-        <v>95.855681366933496</v>
+        <f t="shared" si="0"/>
+        <v>130.98074884557403</v>
       </c>
       <c r="E7">
+        <f t="shared" ref="E7:E16" si="2">F7*3.14159/180</f>
+        <v>1.0471966666666666</v>
+      </c>
+      <c r="F7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <f>SIN(E8)*$K$5+$I$5</f>
-        <v>176.81989990801674</v>
+        <f t="shared" si="1"/>
+        <v>150.0000398038469</v>
       </c>
       <c r="D8">
-        <f>SIN(E8)*$K$5+$J$5</f>
-        <v>131.81989990801674</v>
+        <f t="shared" si="0"/>
+        <v>134.9999999999736</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1.5707949999999999</v>
+      </c>
+      <c r="F8">
         <v>90</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>120</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>105</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <f>COS(E9)*$K$5+$I$5</f>
-        <v>174.42542911579685</v>
+        <f t="shared" si="1"/>
+        <v>135.00004596154693</v>
       </c>
       <c r="D9">
-        <f>SIN(E9)*$K$5+$J$5</f>
-        <v>122.41833552636943</v>
+        <f t="shared" si="0"/>
+        <v>130.98078864939043</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>2.0943933333333331</v>
+      </c>
+      <c r="F9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <f>COS(E10)*$K$5+$I$5</f>
-        <v>170.97752419435125</v>
+        <f t="shared" si="1"/>
+        <v>124.01927105640277</v>
       </c>
       <c r="D10">
-        <f>SIN(E10)*$K$5+$J$5</f>
-        <v>83.553707111125064</v>
+        <f t="shared" si="0"/>
+        <v>120.00005745186763</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>2.6179916666666667</v>
+      </c>
+      <c r="F10">
         <v>150</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11">
-        <f>COS(E11)*$K$5+$I$5</f>
-        <v>132.04619792826426</v>
+        <f t="shared" si="1"/>
+        <v>120.00000000010562</v>
       </c>
       <c r="D11">
-        <f>SIN(E11)*$K$5+$J$5</f>
-        <v>80.965420927985093</v>
+        <f t="shared" si="0"/>
+        <v>105.00007960769381</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="F11">
         <v>180</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>150</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>135</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12">
-        <f>COS(E12)*$K$5+$I$5</f>
-        <v>123.48367580452884</v>
+        <f t="shared" si="1"/>
+        <v>124.01919144876996</v>
       </c>
       <c r="D12">
-        <f>SIN(E12)*$K$5+$J$5</f>
-        <v>119.03155555028277</v>
+        <f t="shared" si="0"/>
+        <v>90.000080432737917</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>3.665188333333333</v>
+      </c>
+      <c r="F12">
         <v>210</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13">
-        <f>COS(E13)*$K$5+$I$5</f>
-        <v>159.77343916605443</v>
+        <f t="shared" si="1"/>
+        <v>134.999908077047</v>
       </c>
       <c r="D13">
-        <f>SIN(E13)*$K$5+$J$5</f>
-        <v>133.36335464763351</v>
+        <f t="shared" si="0"/>
+        <v>79.01929095842533</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>4.1887866666666662</v>
+      </c>
+      <c r="F13">
         <v>240</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14">
-        <f>COS(E14)*$K$5+$I$5</f>
-        <v>179.53145851897514</v>
+        <f t="shared" si="1"/>
+        <v>149.99988058845929</v>
       </c>
       <c r="D14">
-        <f>SIN(E14)*$K$5+$J$5</f>
-        <v>99.71862160586366</v>
+        <f t="shared" si="0"/>
+        <v>75.000000000237648</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
+        <v>4.7123849999999994</v>
+      </c>
+      <c r="F14">
         <v>270</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>180</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>105</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15">
-        <f>COS(E15)*$K$5+$I$5</f>
-        <v>149.33710142163949</v>
+        <f t="shared" si="1"/>
+        <v>164.99988509604469</v>
       </c>
       <c r="D15">
-        <f>SIN(E15)*$K$5+$J$5</f>
-        <v>75.007324802965513</v>
+        <f t="shared" si="0"/>
+        <v>79.019171546976096</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>5.2359833333333334</v>
+      </c>
+      <c r="F15">
         <v>300</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16">
-        <f>COS(E16)*$K$5+$I$5</f>
-        <v>120.26403534734379</v>
+        <f t="shared" si="1"/>
+        <v>175.98068913950641</v>
       </c>
       <c r="D16">
-        <f>SIN(E16)*$K$5+$J$5</f>
-        <v>101.02855112383644</v>
+        <f t="shared" si="0"/>
+        <v>89.999873605988029</v>
       </c>
       <c r="E16">
+        <f t="shared" si="2"/>
+        <v>5.7595816666666666</v>
+      </c>
+      <c r="F16">
         <v>330</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>